--- a/RoundBar_Export.xlsx
+++ b/RoundBar_Export.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB363FF6-F878-43F4-8B84-872BBF3826FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13500" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13500" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -91,13 +91,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,21 +454,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63F18A3-AA89-4C27-A2B8-63FBF8EF687B}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,578 +488,578 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>2.625</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
         <v>6.757614739533822</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
         <v>2.75</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
         <v>5.8773732252838764</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
         <v>2.875</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
         <v>5.1436073068811314</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
         <v>4.5270739368361346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0">
         <v>3.125</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0">
         <v>4.0052652865806539</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
         <v>3.25</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
         <v>3.5606662552812196</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0">
         <v>3.375</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
         <v>3.1795087183266126</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
         <v>3.5</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0">
         <v>2.8508687182408305</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="0">
         <v>3.625</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0">
         <v>2.5660039404166928</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="0">
         <v>3.75</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0">
         <v>2.3178618556601007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="0">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0">
         <v>1.909859317102744</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="0">
         <v>4.25</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
         <v>1.5922621133427315</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="0">
         <v>4.5</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="0">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0">
         <v>1.3413552405440397</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="0">
         <v>4.75</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
         <v>1.1405137429439918</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="0">
         <v>5</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0">
         <v>0.97784797035660498</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="0">
         <v>5.25</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
         <v>0.84470184244172775</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="0">
         <v>5.5</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
         <v>0.73467165316048455</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="0">
         <v>5.75</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
         <v>0.64295091336014143</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="0">
         <v>6</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
         <v>0.56588424210451682</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="0">
         <v>6.5</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
         <v>0.44508328191015245</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="0">
         <v>6.75</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0">
         <v>0.39743858979082658</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" x14ac:dyDescent="0.25">
+      <c r="A23" s="0">
         <v>7</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
         <v>0.35635858978010382</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="0">
         <v>7.5</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
         <v>0.28973273195751259</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="0">
         <v>8</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
         <v>0.238732414637843</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="0">
         <v>8.5</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
         <v>0.19903276416784144</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="0">
         <v>9</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
         <v>0.16766940506800496</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="0">
         <v>9.5</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
         <v>0.14256421786799897</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="0">
         <v>10</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
         <v>0.12223099629457562</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="0">
         <v>10.5</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
         <v>0.10558773030521597</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="0">
         <v>11</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>9.1833956645060569E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.091833956645060569</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="0">
         <v>11.5</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>8.0368864170017679E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.080368864170017679</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="0">
         <v>12</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>7.0735530263064603E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.070735530263064603</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25">
+      <c r="A34" s="0">
         <v>12.5</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>6.2582270102822718E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.062582270102822718</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="0">
         <v>13</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>5.5635410238769056E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.055635410238769056</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25">
+      <c r="A36" s="0">
         <v>14</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>4.4544823722512977E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.044544823722512977</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="0">
         <v>15</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>3.6216591494689074E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.036216591494689074</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="0">
         <v>16</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>2.9841551829730376E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.029841551829730376</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.25">
+      <c r="A39" s="0">
         <v>18</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>2.095867563350062E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.02095867563350062</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="0">
         <v>19</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1.7820527233499871E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.017820527233499871</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.25">
+      <c r="A41" s="0">
         <v>20</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1.5278874536821953E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B41" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.015278874536821953</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.25">
+      <c r="A42" s="0">
         <v>21</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1.3198466288151996E-2</v>
+      <c r="B42" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.013198466288151996</v>
       </c>
     </row>
   </sheetData>

--- a/RoundBar_Export.xlsx
+++ b/RoundBar_Export.xlsx
@@ -83,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -111,11 +111,22 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
@@ -138,6 +149,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
